--- a/Results/Baseline/EoL-RIR/EoL-RIR_base_Offshore wind plants.xlsx
+++ b/Results/Baseline/EoL-RIR/EoL-RIR_base_Offshore wind plants.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="RR_full" sheetId="1" r:id="rId1"/>
-    <sheet name="RR_target" sheetId="2" r:id="rId2"/>
-    <sheet name="RR_hist" sheetId="3" r:id="rId3"/>
+    <sheet name="RR_hist" sheetId="1" r:id="rId1"/>
+    <sheet name="RR_full" sheetId="2" r:id="rId2"/>
+    <sheet name="RR_target" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="7">
   <si>
     <t>EU27+UK</t>
   </si>
@@ -30,10 +30,13 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -680,274 +683,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>5.269382610668694E-10</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3.941281843388211E-09</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.778409318815594E-08</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.708162374815473E-07</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.80763025153816E-07</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.632234540303385E-06</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.088375194292867E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.073388935664359E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0001904921430149064</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0005438837332185551</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.004282356821974074</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.009639262750463557</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.01165292253869677</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0252618466700184</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.03906995720470412</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.01384625508574228</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.007801128313347642</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.006293017633322627</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.01035153297606659</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.01497045783193615</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.02290438620082229</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0310406081138546</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.03627547855530593</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.04295328171627801</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0657376070893245</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.3163086315710701</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.3866927875438232</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.4372517338974188</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.427048376901364</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.4000551623174979</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.5132757138161549</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.4886146947932762</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.4552820888338519</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.4245545847872326</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.4707690034572731</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.5495655422951762</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.6011632652423186</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.6478152995956751</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.6844461614468329</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.6952736094025704</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.6924858250664566</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.6885662834304894</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.6835978780835328</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.677737638243582</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.6699974759885255</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.6648138332048577</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.5799599442346013</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.5399132951530144</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.4587076659123777</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.4086596244233103</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.4256226114184643</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.4173567759950109</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.3884548712588341</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.3476327617470138</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.3182832600876123</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.3216411392194044</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.3425432878046724</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.3956825349932143</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.4611420222954428</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.5191119306258615</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.5706658502842692</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.5996216303585086</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.6120820924745264</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.6128542688861818</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.6087269042363789</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.6069094140747158</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.6006459924023712</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.5945179572429171</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.5873764326599413</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.5739475099472825</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.5486602245226754</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.506960957776487</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.4747706800683454</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.4589159450211853</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.4453912527183579</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.431095935912333</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.4108689068411366</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.3991411500073179</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.4038043790668967</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.4285387928085287</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.4729365698968954</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.5148583535084779</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.5513232585864226</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.5785870188361852</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.5959562374721273</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.6094694361249803</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.6098461285513382</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.6059896594041589</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.6001547786997434</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.5934063435087649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -957,274 +960,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>5.269382610669047E-10</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.941281843388479E-09</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.778409318815713E-08</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.708162374815587E-07</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.807630251538348E-07</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.632234540303562E-06</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.08837519429294E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.073388935664632E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0001904921430149193</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0005438837332185916</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.004282356821974363</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.009639262750464206</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.01165292253869756</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0252618466700201</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.03906995720470674</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.01384625508574321</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.007801128313348163</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.006293017633323047</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.01035153297606729</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.01497045783193717</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.02290438620082383</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.03104060811385668</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.03627547855530838</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0429532817162809</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06573760708932895</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.3163086315710912</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.3866927875438493</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.4372517338974482</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.4270483769013928</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.4000551623175249</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.5132757138161896</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.4886146947933093</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.4552820888338825</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.4245545847872611</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.4707690034573048</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.5495655422952133</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.6011632652423592</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.6478152995957186</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.684446161446879</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.6952736094026171</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.6924858250665035</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.6885662834305357</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.6835978780835792</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.6777376382436276</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.6699974759885704</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.6648138332049026</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.5799599442346401</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.5399132951530508</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.4587076659124085</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.4086596244233379</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.4256226114184929</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.4173567759950391</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.3884548712588602</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.3476327617470373</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.3182832600876338</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.3216411392194261</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.3425432878046955</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.3956825349932411</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.461142022295474</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.5191119306258964</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.5706658502843076</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.5996216303585491</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.6120820924745676</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.6128542688862232</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.60872690423642</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.6069094140747567</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.6006459924024117</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.5945179572429571</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.587376432659981</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.5739475099473212</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.5486602245227125</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.5069609577765212</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.4747706800683774</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.4589159450212163</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.4453912527183883</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.4310959359123619</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.410868906841164</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.3991411500073447</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.4038043790669239</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.4285387928085575</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.4729365698969273</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.5148583535085126</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.55132325858646</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.5785870188362242</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.5959562374721675</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.6094694361250211</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.6098461285513793</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.6059896594041998</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.6001547786997838</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.5934063435088051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1234,274 +1237,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>6.279975097230915E-10</v>
+        <v>0.001348275614325908</v>
       </c>
       <c r="E4">
-        <v>4.697163530606743E-09</v>
+        <v>0.001997280420061062</v>
       </c>
       <c r="F4">
-        <v>2.119482880638277E-08</v>
+        <v>0.002116023901542217</v>
       </c>
       <c r="G4">
-        <v>2.035763573924022E-07</v>
+        <v>0.005521365138603515</v>
       </c>
       <c r="H4">
-        <v>3.346093720010648E-07</v>
+        <v>0.002782292230545969</v>
       </c>
       <c r="I4">
-        <v>3.137059611064871E-06</v>
+        <v>0.008816538086832998</v>
       </c>
       <c r="J4">
-        <v>1.297110045257408E-05</v>
+        <v>0.01331905870684979</v>
       </c>
       <c r="K4">
-        <v>4.854606880418174E-05</v>
+        <v>0.01939861649908325</v>
       </c>
       <c r="L4">
-        <v>0.0002270258211900753</v>
+        <v>0.0372143997707546</v>
       </c>
       <c r="M4">
-        <v>0.0006481928819300649</v>
+        <v>0.04565461189248125</v>
       </c>
       <c r="N4">
-        <v>0.005103651829154486</v>
+        <v>0.1620344255645745</v>
       </c>
       <c r="O4">
-        <v>0.01148793596919978</v>
+        <v>0.1731420672633769</v>
       </c>
       <c r="P4">
-        <v>0.01388778700654836</v>
+        <v>0.1083695465919664</v>
       </c>
       <c r="Q4">
-        <v>0.0301067088346521</v>
+        <v>0.1435941117242466</v>
       </c>
       <c r="R4">
-        <v>0.04656301817952126</v>
+        <v>0.1858037780583029</v>
       </c>
       <c r="S4">
-        <v>0.01650176947719001</v>
+        <v>0.09118246610786108</v>
       </c>
       <c r="T4">
-        <v>0.009297273543761355</v>
+        <v>0.1161225208514102</v>
       </c>
       <c r="U4">
-        <v>0.007499928728592736</v>
+        <v>0.1441201604238716</v>
       </c>
       <c r="V4">
-        <v>0.0123368094729438</v>
+        <v>0.1742612438938911</v>
       </c>
       <c r="W4">
-        <v>0.01784157828819609</v>
+        <v>0.2067614376534373</v>
       </c>
       <c r="X4">
-        <v>0.02729712104550898</v>
+        <v>0.2644079981271637</v>
       </c>
       <c r="Y4">
-        <v>0.03699375436568901</v>
+        <v>0.3025535460800082</v>
       </c>
       <c r="Z4">
-        <v>0.04323259835150708</v>
+        <v>0.3432854188101515</v>
       </c>
       <c r="AA4">
-        <v>0.05119110898806774</v>
+        <v>0.3855447435934838</v>
       </c>
       <c r="AB4">
-        <v>0.07834514325011589</v>
+        <v>0.422539581416905</v>
       </c>
       <c r="AC4">
-        <v>0.3769721191404299</v>
+        <v>1.42987842641784</v>
       </c>
       <c r="AD4">
-        <v>0.4608549531281513</v>
+        <v>1.395907426381773</v>
       </c>
       <c r="AE4">
-        <v>0.521110384836596</v>
+        <v>1.419360003637097</v>
       </c>
       <c r="AF4">
-        <v>0.5089501693848564</v>
+        <v>1.702860075297355</v>
       </c>
       <c r="AG4">
-        <v>0.4767800409455824</v>
+        <v>2.163270497826049</v>
       </c>
       <c r="AH4">
-        <v>0.6117146806255214</v>
+        <v>3.501668355116678</v>
       </c>
       <c r="AI4">
-        <v>0.5823240296178577</v>
+        <v>4.538800551825497</v>
       </c>
       <c r="AJ4">
-        <v>0.5425987048849035</v>
+        <v>5.993232814536325</v>
       </c>
       <c r="AK4">
-        <v>0.5059781034842503</v>
+        <v>7.751301398898378</v>
       </c>
       <c r="AL4">
-        <v>0.5610557890167546</v>
+        <v>8.104394811967538</v>
       </c>
       <c r="AM4">
-        <v>0.6549643810116003</v>
+        <v>7.346011345203729</v>
       </c>
       <c r="AN4">
-        <v>0.7164578118598026</v>
+        <v>6.843787312648625</v>
       </c>
       <c r="AO4">
-        <v>0.7720570415268736</v>
+        <v>6.103961661826173</v>
       </c>
       <c r="AP4">
-        <v>0.8157131806255268</v>
+        <v>5.359413244701602</v>
       </c>
       <c r="AQ4">
-        <v>0.8286171787885993</v>
+        <v>5.365161963447321</v>
       </c>
       <c r="AR4">
-        <v>0.8252947371477518</v>
+        <v>5.824320620563816</v>
       </c>
       <c r="AS4">
-        <v>0.8206234832865119</v>
+        <v>6.259087154670091</v>
       </c>
       <c r="AT4">
-        <v>0.8147022086027073</v>
+        <v>6.652346141723259</v>
       </c>
       <c r="AU4">
-        <v>0.8077180582803946</v>
+        <v>6.982197420937494</v>
       </c>
       <c r="AV4">
-        <v>0.7984934432160286</v>
+        <v>7.065927877692723</v>
       </c>
       <c r="AW4">
-        <v>0.7923156516226706</v>
+        <v>7.049151926704553</v>
       </c>
       <c r="AX4">
-        <v>0.691187996068202</v>
+        <v>6.414189836251896</v>
       </c>
       <c r="AY4">
-        <v>0.6434609704294255</v>
+        <v>7.01983315449277</v>
       </c>
       <c r="AZ4">
-        <v>0.546681258826466</v>
+        <v>8.342877577301083</v>
       </c>
       <c r="BA4">
-        <v>0.4870347162542543</v>
+        <v>8.653640514163326</v>
       </c>
       <c r="BB4">
-        <v>0.507250962402055</v>
+        <v>7.861975285873656</v>
       </c>
       <c r="BC4">
-        <v>0.4973998575473804</v>
+        <v>7.20056679961948</v>
       </c>
       <c r="BD4">
-        <v>0.4629549793868442</v>
+        <v>6.933163057073839</v>
       </c>
       <c r="BE4">
-        <v>0.4143037710590187</v>
+        <v>6.900977272043016</v>
       </c>
       <c r="BF4">
-        <v>0.3793254532644429</v>
+        <v>6.824715344413893</v>
       </c>
       <c r="BG4">
-        <v>0.3833273257579056</v>
+        <v>6.847602527039054</v>
       </c>
       <c r="BH4">
-        <v>0.4082382085486783</v>
+        <v>6.531005213508573</v>
       </c>
       <c r="BI4">
-        <v>0.4715688060182923</v>
+        <v>5.969474635570014</v>
       </c>
       <c r="BJ4">
-        <v>0.5495824900698534</v>
+        <v>5.321806017814215</v>
       </c>
       <c r="BK4">
-        <v>0.6186702006427606</v>
+        <v>4.773823502205475</v>
       </c>
       <c r="BL4">
-        <v>0.6801114273557245</v>
+        <v>4.417402776890014</v>
       </c>
       <c r="BM4">
-        <v>0.714620513376343</v>
+        <v>4.19542981523583</v>
       </c>
       <c r="BN4">
-        <v>0.7294707145422534</v>
+        <v>4.22648383502352</v>
       </c>
       <c r="BO4">
-        <v>0.7303909833847642</v>
+        <v>4.456529049121671</v>
       </c>
       <c r="BP4">
-        <v>0.7254720490174867</v>
+        <v>4.765739530785789</v>
       </c>
       <c r="BQ4">
-        <v>0.7233059901453146</v>
+        <v>5.114578381641942</v>
       </c>
       <c r="BR4">
-        <v>0.7158413334612198</v>
+        <v>5.410323173543914</v>
       </c>
       <c r="BS4">
-        <v>0.7085380284936874</v>
+        <v>5.659890808489734</v>
       </c>
       <c r="BT4">
-        <v>0.7000268612752457</v>
+        <v>5.884856788631743</v>
       </c>
       <c r="BU4">
-        <v>0.6840224625725607</v>
+        <v>6.210353162712469</v>
       </c>
       <c r="BV4">
-        <v>0.6538854361927376</v>
+        <v>6.918223648612926</v>
       </c>
       <c r="BW4">
-        <v>0.6041888443740577</v>
+        <v>7.80720264108064</v>
       </c>
       <c r="BX4">
-        <v>0.5658249301707534</v>
+        <v>8.368979343213496</v>
       </c>
       <c r="BY4">
-        <v>0.5469294828999917</v>
+        <v>8.462867245986235</v>
       </c>
       <c r="BZ4">
-        <v>0.5308109473646327</v>
+        <v>8.448568651705529</v>
       </c>
       <c r="CA4">
-        <v>0.5137739925291456</v>
+        <v>8.614465044366383</v>
       </c>
       <c r="CB4">
-        <v>0.4896677075535778</v>
+        <v>8.686330699703372</v>
       </c>
       <c r="CC4">
-        <v>0.4756907341006264</v>
+        <v>8.588397277451927</v>
       </c>
       <c r="CD4">
-        <v>0.481248304034445</v>
+        <v>8.210430711136244</v>
       </c>
       <c r="CE4">
-        <v>0.5107264258219125</v>
+        <v>7.527341776705936</v>
       </c>
       <c r="CF4">
-        <v>0.5636390638077826</v>
+        <v>6.744082307196024</v>
       </c>
       <c r="CG4">
-        <v>0.6136008480553743</v>
+        <v>5.893368286475389</v>
       </c>
       <c r="CH4">
-        <v>0.6570592022368945</v>
+        <v>5.206955580176696</v>
       </c>
       <c r="CI4">
-        <v>0.6895517631450224</v>
+        <v>4.731159410605963</v>
       </c>
       <c r="CJ4">
-        <v>0.7102521503727841</v>
+        <v>4.463944624083189</v>
       </c>
       <c r="CK4">
-        <v>0.7263569879399087</v>
+        <v>4.43086252282768</v>
       </c>
       <c r="CL4">
-        <v>0.7268059246050989</v>
+        <v>4.508048137067159</v>
       </c>
       <c r="CM4">
-        <v>0.7222098396371003</v>
+        <v>4.675904498446059</v>
       </c>
       <c r="CN4">
-        <v>0.7152559119711055</v>
+        <v>4.883361556478133</v>
       </c>
       <c r="CO4">
-        <v>0.7072132230878164</v>
+        <v>5.102322334503957</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1510,275 +1513,275 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
-      <c r="BR5">
-        <v>0</v>
-      </c>
-      <c r="BS5">
-        <v>0</v>
-      </c>
-      <c r="BT5">
-        <v>0</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5">
-        <v>0</v>
-      </c>
-      <c r="BW5">
-        <v>0</v>
-      </c>
-      <c r="BX5">
-        <v>0</v>
-      </c>
-      <c r="BY5">
-        <v>0</v>
-      </c>
-      <c r="BZ5">
-        <v>0</v>
-      </c>
-      <c r="CA5">
-        <v>0</v>
-      </c>
-      <c r="CB5">
-        <v>0</v>
-      </c>
-      <c r="CC5">
-        <v>0</v>
-      </c>
-      <c r="CD5">
-        <v>0</v>
-      </c>
-      <c r="CE5">
-        <v>0</v>
-      </c>
-      <c r="CF5">
-        <v>0</v>
-      </c>
-      <c r="CG5">
-        <v>0</v>
-      </c>
-      <c r="CH5">
-        <v>0</v>
-      </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5">
-        <v>0</v>
-      </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CL5">
-        <v>0</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
-      <c r="CO5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2081,274 +2084,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>2.634691269208972E-10</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.97064088165846E-09</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8.892046402623098E-09</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.54081139395602E-08</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.403815085931698E-07</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.316117151269784E-06</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.44187522073034E-06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.036694048270106E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>9.524603180046796E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0002719417120636732</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.002141173232570363</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004819615089584078</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.005826444743144867</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.01263086666715866</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.01953487183123864</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.006923112207176762</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.003900554627092402</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.003146500026750315</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.005175749966319147</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.007485202002301488</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.01145214256441371</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.01552022730143316</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.01813764170122183</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.02147651628585693</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03286859752847381</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.1581509921406596</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.1933424383086204</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.2186213752067855</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.2135192016735556</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.2000220201427243</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.2566268860897769</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.2442942424694825</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.2276251322368918</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.2122579220401277</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.2353612384808922</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.274757112304904</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.3005546605008489</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.3238806181176987</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.3421968003481304</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.3476099853452398</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.3462146025586108</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.3442535196603448</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.3417682384048311</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.3388373381157239</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.3349674647311654</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.3323760818392847</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.2899558429881459</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.2699330786631322</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.2293316614601011</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.2043100879831218</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.2127925490662125</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.2086614777312725</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.1942123696527872</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.173803123727905</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.1591296037790067</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.16080809260178</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.1712584796207003</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.1978266539078455</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.230554976208598</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.2595389071623548</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.2853147702180737</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.2997921665841651</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.3060218043550502</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.3064071487225051</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.30434269526216</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.303432976887858</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.3003006874873075</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.2972362661132786</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.2936652729390407</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.2869506591717558</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.274306497937465</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.2534569716974465</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.2373624456837758</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.2294358559442193</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.2226742957798731</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.2155269995724746</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.2054143233241212</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.1995511006847351</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.2018829996387929</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.2142501368414308</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.236448445722649</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.2574094172334749</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.275642076682471</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.2892741525898923</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.2979588388674658</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.304714982112065</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.3049030846476637</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.3029745157495842</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.3000567270443432</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.2966821980347231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2358,274 +2361,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>2.63469126920915E-10</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.970640881658593E-09</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>8.892046402623694E-09</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>8.540811393956594E-08</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.403815085931793E-07</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.316117151269873E-06</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.441875220730706E-06</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.036694048270243E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>9.524603180047437E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0002719417120636915</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.002141173232570507</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.004819615089584403</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.00582644474314526</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.01263086666715951</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.01953487183123995</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.006923112207177231</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.003900554627092663</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.003146500026750525</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.005175749966319497</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.007485202002301995</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.01145214256441449</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.01552022730143421</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.01813764170122305</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.02147651628585838</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03286859752847602</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.1581509921406703</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.1933424383086335</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.2186213752068003</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.2135192016735699</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.2000220201427378</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.2566268860897942</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.2442942424694989</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.2276251322369072</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.212257922040142</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.235361238480908</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.2747571123049227</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.3005546605008692</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.3238806181177207</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.3421968003481534</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.3476099853452632</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.346214602558634</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.344253519660368</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.3417682384048542</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.3388373381157467</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.334967464731188</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.3323760818393072</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.2899558429881655</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.2699330786631504</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.2293316614601166</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.2043100879831355</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.2127925490662269</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.2086614777312867</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.1942123696528003</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.1738031237279168</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.1591296037790174</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.1608080926017908</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.1712584796207118</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.1978266539078588</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.2305549762086136</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.2595389071623725</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.2853147702180928</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.2997921665841853</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.3060218043550707</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.3064071487225258</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.3043426952621805</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.3034329768878785</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.3003006874873278</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.2972362661132986</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.2936652729390604</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.2869506591717751</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.2743064979374835</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.2534569716974635</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.2373624456837918</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.2294358559442348</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.2226742957798881</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.2155269995724891</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.2054143233241351</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.1995511006847485</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.2018829996388065</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.2142501368414453</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.2364484457226649</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.2574094172334923</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.2756420766824897</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.2892741525899117</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.2979588388674859</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.3047149821120855</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.3049030846476843</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.3029745157496047</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.3000567270443635</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.296682198034743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -2635,274 +2638,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3.139987505561753E-10</v>
+        <v>0.002696551228651816</v>
       </c>
       <c r="E4">
-        <v>2.348581717589459E-09</v>
+        <v>0.003994560840122125</v>
       </c>
       <c r="F4">
-        <v>1.05974141750182E-08</v>
+        <v>0.004232047803084435</v>
       </c>
       <c r="G4">
-        <v>1.017881729741834E-07</v>
+        <v>0.01104273027720703</v>
       </c>
       <c r="H4">
-        <v>1.673046812527699E-07</v>
+        <v>0.005564584461091939</v>
       </c>
       <c r="I4">
-        <v>1.568529663850672E-06</v>
+        <v>0.017633076173666</v>
       </c>
       <c r="J4">
-        <v>6.485549331572963E-06</v>
+        <v>0.02663811741369957</v>
       </c>
       <c r="K4">
-        <v>2.427302940180988E-05</v>
+        <v>0.03879723299816651</v>
       </c>
       <c r="L4">
-        <v>0.0001135128632728185</v>
+        <v>0.0744287995415092</v>
       </c>
       <c r="M4">
-        <v>0.0003240962567797838</v>
+        <v>0.09130922378496251</v>
       </c>
       <c r="N4">
-        <v>0.002551819743014052</v>
+        <v>0.324068851129149</v>
       </c>
       <c r="O4">
-        <v>0.00574394857559706</v>
+        <v>0.346284134526754</v>
       </c>
       <c r="P4">
-        <v>0.006943873807580359</v>
+        <v>0.2167390931839329</v>
       </c>
       <c r="Q4">
-        <v>0.01505328688138941</v>
+        <v>0.2871882234484931</v>
       </c>
       <c r="R4">
-        <v>0.02328138184146934</v>
+        <v>0.3716075561166059</v>
       </c>
       <c r="S4">
-        <v>0.008250866461733012</v>
+        <v>0.1823649322157222</v>
       </c>
       <c r="T4">
-        <v>0.00464862541466136</v>
+        <v>0.2322450417028205</v>
       </c>
       <c r="U4">
-        <v>0.003749953888605713</v>
+        <v>0.2882403208477433</v>
       </c>
       <c r="V4">
-        <v>0.006168385046128444</v>
+        <v>0.3485224877877823</v>
       </c>
       <c r="W4">
-        <v>0.008920757068773773</v>
+        <v>0.4135228753068746</v>
       </c>
       <c r="X4">
-        <v>0.01364850029467298</v>
+        <v>0.5288159962543274</v>
       </c>
       <c r="Y4">
-        <v>0.01849678570674051</v>
+        <v>0.6051070921600165</v>
       </c>
       <c r="Z4">
-        <v>0.02161618288555355</v>
+        <v>0.6865708376203028</v>
       </c>
       <c r="AA4">
-        <v>0.02559540603056347</v>
+        <v>0.7710894871869677</v>
       </c>
       <c r="AB4">
-        <v>0.03917232609790065</v>
+        <v>0.8450791628338098</v>
       </c>
       <c r="AC4">
-        <v>0.1884820984976205</v>
+        <v>2.859756852835681</v>
       </c>
       <c r="AD4">
-        <v>0.2304227624992977</v>
+        <v>2.791814852763546</v>
       </c>
       <c r="AE4">
-        <v>0.2605498392242885</v>
+        <v>2.838720007274194</v>
       </c>
       <c r="AF4">
-        <v>0.2544691415225195</v>
+        <v>3.405720150594711</v>
       </c>
       <c r="AG4">
-        <v>0.2383833929331474</v>
+        <v>4.326540995652097</v>
       </c>
       <c r="AH4">
-        <v>0.3058442654478639</v>
+        <v>7.003336710233354</v>
       </c>
       <c r="AI4">
-        <v>0.2911463965435133</v>
+        <v>9.077601103650995</v>
       </c>
       <c r="AJ4">
-        <v>0.2712803885330641</v>
+        <v>11.98646562907265</v>
       </c>
       <c r="AK4">
-        <v>0.2529659664308997</v>
+        <v>15.50260279779675</v>
       </c>
       <c r="AL4">
-        <v>0.2805001697012585</v>
+        <v>16.20878962393508</v>
       </c>
       <c r="AM4">
-        <v>0.3274516106627738</v>
+        <v>14.69202269040746</v>
       </c>
       <c r="AN4">
-        <v>0.3581967609413166</v>
+        <v>13.68757462529725</v>
       </c>
       <c r="AO4">
-        <v>0.3859963047922976</v>
+        <v>12.20792332365234</v>
       </c>
       <c r="AP4">
-        <v>0.4078252697360401</v>
+        <v>10.7188264894032</v>
       </c>
       <c r="AQ4">
-        <v>0.4142766264679888</v>
+        <v>10.73032392689464</v>
       </c>
       <c r="AR4">
-        <v>0.4126136291495947</v>
+        <v>11.64864124112764</v>
       </c>
       <c r="AS4">
-        <v>0.4102764385003938</v>
+        <v>12.51817430934018</v>
       </c>
       <c r="AT4">
-        <v>0.4073145157197932</v>
+        <v>13.30469228344652</v>
       </c>
       <c r="AU4">
-        <v>0.4038215105258272</v>
+        <v>13.964394841875</v>
       </c>
       <c r="AV4">
-        <v>0.3992094505787551</v>
+        <v>14.13185575538545</v>
       </c>
       <c r="AW4">
-        <v>0.3961210773800709</v>
+        <v>14.09830385340911</v>
       </c>
       <c r="AX4">
-        <v>0.3455652412818581</v>
+        <v>12.82837967250379</v>
       </c>
       <c r="AY4">
-        <v>0.3217023961196517</v>
+        <v>14.03966630898553</v>
       </c>
       <c r="AZ4">
-        <v>0.2733142057401795</v>
+        <v>16.68575515460217</v>
       </c>
       <c r="BA4">
-        <v>0.2434938510726667</v>
+        <v>17.30728102832665</v>
       </c>
       <c r="BB4">
-        <v>0.2536031273011926</v>
+        <v>15.72395057174731</v>
       </c>
       <c r="BC4">
-        <v>0.2486797753593955</v>
+        <v>14.40113359923896</v>
       </c>
       <c r="BD4">
-        <v>0.2314595342771919</v>
+        <v>13.86632611414768</v>
       </c>
       <c r="BE4">
-        <v>0.2071360858523192</v>
+        <v>13.80195454408603</v>
       </c>
       <c r="BF4">
-        <v>0.1896483939012293</v>
+        <v>13.64943068882778</v>
       </c>
       <c r="BG4">
-        <v>0.1916487929587309</v>
+        <v>13.69520505407811</v>
       </c>
       <c r="BH4">
-        <v>0.2041034152711001</v>
+        <v>13.06201042701714</v>
       </c>
       <c r="BI4">
-        <v>0.2357669867423297</v>
+        <v>11.93894927114003</v>
       </c>
       <c r="BJ4">
-        <v>0.2747721348230061</v>
+        <v>10.64361203562843</v>
       </c>
       <c r="BK4">
-        <v>0.3093147706606331</v>
+        <v>9.547647004410949</v>
       </c>
       <c r="BL4">
-        <v>0.3400340768981067</v>
+        <v>8.834805553780026</v>
       </c>
       <c r="BM4">
-        <v>0.3572880315583201</v>
+        <v>8.39085963047166</v>
       </c>
       <c r="BN4">
-        <v>0.3647124250701366</v>
+        <v>8.452967670047038</v>
       </c>
       <c r="BO4">
-        <v>0.3651716729954204</v>
+        <v>8.913058098243342</v>
       </c>
       <c r="BP4">
-        <v>0.3627112867835499</v>
+        <v>9.531479061571574</v>
       </c>
       <c r="BQ4">
-        <v>0.3616270973901771</v>
+        <v>10.22915676328388</v>
       </c>
       <c r="BR4">
-        <v>0.3578940795233493</v>
+        <v>10.82064634708783</v>
       </c>
       <c r="BS4">
-        <v>0.3542419458032889</v>
+        <v>11.31978161697946</v>
       </c>
       <c r="BT4">
-        <v>0.3499860870312969</v>
+        <v>11.76971357726349</v>
       </c>
       <c r="BU4">
-        <v>0.3419837060387498</v>
+        <v>12.42070632542493</v>
       </c>
       <c r="BV4">
-        <v>0.3269145748817238</v>
+        <v>13.83644729722584</v>
       </c>
       <c r="BW4">
-        <v>0.3020664066520565</v>
+        <v>15.61440528216129</v>
       </c>
       <c r="BX4">
-        <v>0.2828851799248592</v>
+        <v>16.73795868642699</v>
       </c>
       <c r="BY4">
-        <v>0.2734383832413929</v>
+        <v>16.92573449197247</v>
       </c>
       <c r="BZ4">
-        <v>0.2653800522018986</v>
+        <v>16.89713730341106</v>
       </c>
       <c r="CA4">
-        <v>0.2568620064437259</v>
+        <v>17.22893008873277</v>
       </c>
       <c r="CB4">
-        <v>0.2448098630147334</v>
+        <v>17.37266139940674</v>
       </c>
       <c r="CC4">
-        <v>0.2378221578345637</v>
+        <v>17.17679455490385</v>
       </c>
       <c r="CD4">
-        <v>0.2406012817742626</v>
+        <v>16.42086142227249</v>
       </c>
       <c r="CE4">
-        <v>0.2553402596384546</v>
+        <v>15.05468355341187</v>
       </c>
       <c r="CF4">
-        <v>0.2817958877973291</v>
+        <v>13.48816461439205</v>
       </c>
       <c r="CG4">
-        <v>0.3067768749124494</v>
+        <v>11.78673657295078</v>
       </c>
       <c r="CH4">
-        <v>0.3285062985956267</v>
+        <v>10.4139111603534</v>
       </c>
       <c r="CI4">
-        <v>0.3447528123805315</v>
+        <v>9.462318821211927</v>
       </c>
       <c r="CJ4">
-        <v>0.3551030977137699</v>
+        <v>8.927889248166379</v>
       </c>
       <c r="CK4">
-        <v>0.3631549729455105</v>
+        <v>8.861725045655366</v>
       </c>
       <c r="CL4">
-        <v>0.3633791508666381</v>
+        <v>9.016096274134314</v>
       </c>
       <c r="CM4">
-        <v>0.3610807099394767</v>
+        <v>9.351808996892117</v>
       </c>
       <c r="CN4">
-        <v>0.357603330944299</v>
+        <v>9.766723112956262</v>
       </c>
       <c r="CO4">
-        <v>0.3535816153637312</v>
+        <v>10.20464466900791</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -2911,275 +2914,275 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
-      <c r="BR5">
-        <v>0</v>
-      </c>
-      <c r="BS5">
-        <v>0</v>
-      </c>
-      <c r="BT5">
-        <v>0</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5">
-        <v>0</v>
-      </c>
-      <c r="BW5">
-        <v>0</v>
-      </c>
-      <c r="BX5">
-        <v>0</v>
-      </c>
-      <c r="BY5">
-        <v>0</v>
-      </c>
-      <c r="BZ5">
-        <v>0</v>
-      </c>
-      <c r="CA5">
-        <v>0</v>
-      </c>
-      <c r="CB5">
-        <v>0</v>
-      </c>
-      <c r="CC5">
-        <v>0</v>
-      </c>
-      <c r="CD5">
-        <v>0</v>
-      </c>
-      <c r="CE5">
-        <v>0</v>
-      </c>
-      <c r="CF5">
-        <v>0</v>
-      </c>
-      <c r="CG5">
-        <v>0</v>
-      </c>
-      <c r="CH5">
-        <v>0</v>
-      </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5">
-        <v>0</v>
-      </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CL5">
-        <v>0</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
-      <c r="CO5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3482,274 +3485,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>5.269382530929895E-12</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3.941281755018799E-11</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.778409276557138E-10</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.708162268847826E-09</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.807630163627263E-09</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.632234278071565E-08</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.088375028862204E-07</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.073388013226548E-07</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.904920561264431E-06</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>5.438833979441439E-06</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.282345735156077E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.639228421854886E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001165288815470692</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0002526172950650139</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0003906973599927106</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.000138462230817822</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>7.801108298935794E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>6.292999097381751E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0001035149803065752</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0001497040074049123</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.00022904278741787</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.000310404446965161</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0003627527026645352</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0004295301510176246</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0006573716574023216</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.003163015069262854</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.003866843064607145</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.00437242094575436</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.004270376353817535</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.004000431270814426</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.005132518770138426</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.00488586147762221</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.004552473903698096</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.004245123791201885</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.004707184588186771</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.005495099704915528</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.00601104983942029</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.006477570660770551</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.006843897305788567</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.006952160348524953</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.006924249501337816</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.00688502493128572</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0068353168034258</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.006776696855475436</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.00669929936922416</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.006647472216794956</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.005799077631000227</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.005398621615660526</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.004586592902659345</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.004086164503417897</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.004255815725778644</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.004173197891617223</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.003884219020369657</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.003476037206307024</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.003182569199541187</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.003216138658807427</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.003425146031222142</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.003956508193991094</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.004611073658561541</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.00519075201300024</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.005706268814101908</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.005995816789605863</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.006120408791276865</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.006128114158975832</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.006086823301843239</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.006068626796544515</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.006005979476551493</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.005944689837182607</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.005873269009642039</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.005738975602735022</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.005486089949619803</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.005069097728708854</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.004747207055338129</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.004588676208275523</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.004453446280674719</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.004310500880303828</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.004108248883901557</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.003990985917781974</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.004037625080785088</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.004284968762741474</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.004728935312401548</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.005148156366858433</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.005512811268606115</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.005785454183957425</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.005959148716856454</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.006094271156219881</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.006098032693528635</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.006059460428419781</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.006001103631993236</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.005933612032365304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -4036,274 +4039,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3.139987501099676E-10</v>
+        <v>0.001348275614325908</v>
       </c>
       <c r="E4">
-        <v>2.348581712644668E-09</v>
+        <v>0.001997280420061062</v>
       </c>
       <c r="F4">
-        <v>1.059741415137626E-08</v>
+        <v>0.002116023901542217</v>
       </c>
       <c r="G4">
-        <v>1.017881723816646E-07</v>
+        <v>0.005521365138603515</v>
       </c>
       <c r="H4">
-        <v>1.673046807619846E-07</v>
+        <v>0.002782292230545969</v>
       </c>
       <c r="I4">
-        <v>1.568529649270363E-06</v>
+        <v>0.008816538086832998</v>
       </c>
       <c r="J4">
-        <v>6.485549240497503E-06</v>
+        <v>0.01331905870684979</v>
       </c>
       <c r="K4">
-        <v>2.427302890534969E-05</v>
+        <v>0.01939861649908325</v>
       </c>
       <c r="L4">
-        <v>0.0001135128588188215</v>
+        <v>0.0372143997707546</v>
       </c>
       <c r="M4">
-        <v>0.0003240962411774</v>
+        <v>0.04565461189248125</v>
       </c>
       <c r="N4">
-        <v>0.002551819308021403</v>
+        <v>0.1620344255645745</v>
       </c>
       <c r="O4">
-        <v>0.005743947528426606</v>
+        <v>0.1731420672633769</v>
       </c>
       <c r="P4">
-        <v>0.006943873014099649</v>
+        <v>0.1083695465919664</v>
       </c>
       <c r="Q4">
-        <v>0.01505328460042116</v>
+        <v>0.1435941117242466</v>
       </c>
       <c r="R4">
-        <v>0.02328137727501935</v>
+        <v>0.1858037780583029</v>
       </c>
       <c r="S4">
-        <v>0.008250865667663251</v>
+        <v>0.09118246610786108</v>
       </c>
       <c r="T4">
-        <v>0.004648624845435279</v>
+        <v>0.1161225208514102</v>
       </c>
       <c r="U4">
-        <v>0.003749953318861288</v>
+        <v>0.1441201604238716</v>
       </c>
       <c r="V4">
-        <v>0.006168383912751652</v>
+        <v>0.1742612438938911</v>
       </c>
       <c r="W4">
-        <v>0.008920755123712839</v>
+        <v>0.2067614376534373</v>
       </c>
       <c r="X4">
-        <v>0.0136484964886811</v>
+        <v>0.2644079981271637</v>
       </c>
       <c r="Y4">
-        <v>0.01849677980361699</v>
+        <v>0.3025535460800082</v>
       </c>
       <c r="Z4">
-        <v>0.02161617505791063</v>
+        <v>0.3432854188101515</v>
       </c>
       <c r="AA4">
-        <v>0.02559539562034392</v>
+        <v>0.3855447435934838</v>
       </c>
       <c r="AB4">
-        <v>0.03917230862827884</v>
+        <v>0.422539581416905</v>
       </c>
       <c r="AC4">
-        <v>0.1884818140451574</v>
+        <v>1.42987842641784</v>
       </c>
       <c r="AD4">
-        <v>0.2304224227470865</v>
+        <v>1.395907426381773</v>
       </c>
       <c r="AE4">
-        <v>0.2605494484150172</v>
+        <v>1.419360003637097</v>
       </c>
       <c r="AF4">
-        <v>0.2544686838974353</v>
+        <v>1.702860075297355</v>
       </c>
       <c r="AG4">
-        <v>0.2383828487613876</v>
+        <v>2.163270497826049</v>
       </c>
       <c r="AH4">
-        <v>0.3058431361321214</v>
+        <v>3.501668355116678</v>
       </c>
       <c r="AI4">
-        <v>0.2911450038365462</v>
+        <v>4.538800551825497</v>
       </c>
       <c r="AJ4">
-        <v>0.2712786758749866</v>
+        <v>5.993232814536325</v>
       </c>
       <c r="AK4">
-        <v>0.2529639016858868</v>
+        <v>7.751301398898378</v>
       </c>
       <c r="AL4">
-        <v>0.2804977753184139</v>
+        <v>8.104394811967538</v>
       </c>
       <c r="AM4">
-        <v>0.3274490756640199</v>
+        <v>7.346011345203729</v>
       </c>
       <c r="AN4">
-        <v>0.3581941765183654</v>
+        <v>6.843787312648625</v>
       </c>
       <c r="AO4">
-        <v>0.3859938198246572</v>
+        <v>6.103961661826173</v>
       </c>
       <c r="AP4">
-        <v>0.4078229635606571</v>
+        <v>5.359413244701602</v>
       </c>
       <c r="AQ4">
-        <v>0.4142742811301807</v>
+        <v>5.365161963447321</v>
       </c>
       <c r="AR4">
-        <v>0.4126110936352831</v>
+        <v>5.824320620563816</v>
       </c>
       <c r="AS4">
-        <v>0.4102737294569066</v>
+        <v>6.259087154670091</v>
       </c>
       <c r="AT4">
-        <v>0.4073116575392382</v>
+        <v>6.652346141723259</v>
       </c>
       <c r="AU4">
-        <v>0.4038185366128517</v>
+        <v>6.982197420937494</v>
       </c>
       <c r="AV4">
-        <v>0.399206475559796</v>
+        <v>7.065927877692723</v>
       </c>
       <c r="AW4">
-        <v>0.396118132478039</v>
+        <v>7.049151926704553</v>
       </c>
       <c r="AX4">
-        <v>0.3455629036678433</v>
+        <v>6.414189836251896</v>
       </c>
       <c r="AY4">
-        <v>0.3217000150746149</v>
+        <v>7.01983315449277</v>
       </c>
       <c r="AZ4">
-        <v>0.2733118027102375</v>
+        <v>8.342877577301083</v>
       </c>
       <c r="BA4">
-        <v>0.2434916309996031</v>
+        <v>8.653640514163326</v>
       </c>
       <c r="BB4">
-        <v>0.2536010264483526</v>
+        <v>7.861975285873656</v>
       </c>
       <c r="BC4">
-        <v>0.248677888583298</v>
+        <v>7.20056679961948</v>
       </c>
       <c r="BD4">
-        <v>0.2314578435690461</v>
+        <v>6.933163057073839</v>
       </c>
       <c r="BE4">
-        <v>0.2071345801352433</v>
+        <v>6.900977272043016</v>
       </c>
       <c r="BF4">
-        <v>0.1896470307343697</v>
+        <v>6.824715344413893</v>
       </c>
       <c r="BG4">
-        <v>0.1916474108907914</v>
+        <v>6.847602527039054</v>
       </c>
       <c r="BH4">
-        <v>0.2041020112764665</v>
+        <v>6.531005213508573</v>
       </c>
       <c r="BI4">
-        <v>0.235765503912621</v>
+        <v>5.969474635570014</v>
       </c>
       <c r="BJ4">
-        <v>0.2747705935097128</v>
+        <v>5.321806017814215</v>
       </c>
       <c r="BK4">
-        <v>0.3093132135778431</v>
+        <v>4.773823502205475</v>
       </c>
       <c r="BL4">
-        <v>0.3400324924034869</v>
+        <v>4.417402776890014</v>
       </c>
       <c r="BM4">
-        <v>0.3572864499348392</v>
+        <v>4.19542981523583</v>
       </c>
       <c r="BN4">
-        <v>0.364710798531427</v>
+        <v>4.22648383502352</v>
       </c>
       <c r="BO4">
-        <v>0.3651699559018423</v>
+        <v>4.456529049121671</v>
       </c>
       <c r="BP4">
-        <v>0.3627094631487539</v>
+        <v>4.765739530785789</v>
       </c>
       <c r="BQ4">
-        <v>0.3616251463646466</v>
+        <v>5.114578381641942</v>
       </c>
       <c r="BR4">
-        <v>0.3578920372081024</v>
+        <v>5.410323173543914</v>
       </c>
       <c r="BS4">
-        <v>0.3542398312724813</v>
+        <v>5.659890808489734</v>
       </c>
       <c r="BT4">
-        <v>0.3499839150530907</v>
+        <v>5.884856788631743</v>
       </c>
       <c r="BU4">
-        <v>0.3419814666316107</v>
+        <v>6.210353162712469</v>
       </c>
       <c r="BV4">
-        <v>0.3269121907662073</v>
+        <v>6.918223648612926</v>
       </c>
       <c r="BW4">
-        <v>0.3020639214665192</v>
+        <v>7.80720264108064</v>
       </c>
       <c r="BX4">
-        <v>0.2828826856163622</v>
+        <v>8.368979343213496</v>
       </c>
       <c r="BY4">
-        <v>0.2734359454073632</v>
+        <v>8.462867245986235</v>
       </c>
       <c r="BZ4">
-        <v>0.2653776903850957</v>
+        <v>8.448568651705529</v>
       </c>
       <c r="CA4">
-        <v>0.256859675838426</v>
+        <v>8.614465044366383</v>
       </c>
       <c r="CB4">
-        <v>0.2448076234955205</v>
+        <v>8.686330699703372</v>
       </c>
       <c r="CC4">
-        <v>0.2378200069048459</v>
+        <v>8.588397277451927</v>
       </c>
       <c r="CD4">
-        <v>0.2405992013936106</v>
+        <v>8.210430711136244</v>
       </c>
       <c r="CE4">
-        <v>0.2553382351468114</v>
+        <v>7.527341776705936</v>
       </c>
       <c r="CF4">
-        <v>0.2817938854750288</v>
+        <v>6.744082307196024</v>
       </c>
       <c r="CG4">
-        <v>0.3067749693774749</v>
+        <v>5.893368286475389</v>
       </c>
       <c r="CH4">
-        <v>0.3285044951232626</v>
+        <v>5.206955580176696</v>
       </c>
       <c r="CI4">
-        <v>0.3447510921664919</v>
+        <v>4.731159410605963</v>
       </c>
       <c r="CJ4">
-        <v>0.3551014256089959</v>
+        <v>4.463944624083189</v>
       </c>
       <c r="CK4">
-        <v>0.363153275483793</v>
+        <v>4.43086252282768</v>
       </c>
       <c r="CL4">
-        <v>0.3633774228115885</v>
+        <v>4.508048137067159</v>
       </c>
       <c r="CM4">
-        <v>0.3610789290199539</v>
+        <v>4.675904498446059</v>
       </c>
       <c r="CN4">
-        <v>0.357601489105353</v>
+        <v>4.883361556478133</v>
       </c>
       <c r="CO4">
-        <v>0.3535797127773484</v>
+        <v>5.102322334503957</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -4312,275 +4315,275 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
-      <c r="BR5">
-        <v>0</v>
-      </c>
-      <c r="BS5">
-        <v>0</v>
-      </c>
-      <c r="BT5">
-        <v>0</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5">
-        <v>0</v>
-      </c>
-      <c r="BW5">
-        <v>0</v>
-      </c>
-      <c r="BX5">
-        <v>0</v>
-      </c>
-      <c r="BY5">
-        <v>0</v>
-      </c>
-      <c r="BZ5">
-        <v>0</v>
-      </c>
-      <c r="CA5">
-        <v>0</v>
-      </c>
-      <c r="CB5">
-        <v>0</v>
-      </c>
-      <c r="CC5">
-        <v>0</v>
-      </c>
-      <c r="CD5">
-        <v>0</v>
-      </c>
-      <c r="CE5">
-        <v>0</v>
-      </c>
-      <c r="CF5">
-        <v>0</v>
-      </c>
-      <c r="CG5">
-        <v>0</v>
-      </c>
-      <c r="CH5">
-        <v>0</v>
-      </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5">
-        <v>0</v>
-      </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CL5">
-        <v>0</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
-      <c r="CO5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>6</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
